--- a/ecotrack-backend/Documentation/US_Emissions.xlsx
+++ b/ecotrack-backend/Documentation/US_Emissions.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsh\Documents\Infosys\EcoTrackV2\EcoTrackFront-End\ecotrack-backend\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5170CB42-B768-45CE-B8C4-7D4C4E628C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77768CDF-3E1F-4794-B3CC-C5B24F2E42ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95FE67DE-A8EF-45BB-8EF0-38ACD45801C5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{95FE67DE-A8EF-45BB-8EF0-38ACD45801C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Electricity" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +35,122 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+  <si>
+    <t>Total Output Emission Factors</t>
+  </si>
+  <si>
+    <t>Non-Baseload Emission Factors</t>
+  </si>
+  <si>
+    <t>eGRID Subregion</t>
+  </si>
+  <si>
+    <t>AKGD (ASCC Alaska Grid)</t>
+  </si>
+  <si>
+    <t>AKMS (ASCC Miscellaneous)</t>
+  </si>
+  <si>
+    <t>AZNM (WECC Southwest)</t>
+  </si>
+  <si>
+    <t>CAMX (WECC California)</t>
+  </si>
+  <si>
+    <t>ERCT (ERCOT All)</t>
+  </si>
+  <si>
+    <t>FRCC (FRCC All)</t>
+  </si>
+  <si>
+    <t>HIMS (HICC Miscellaneous)</t>
+  </si>
+  <si>
+    <t>HIOA (HICC Oahu)</t>
+  </si>
+  <si>
+    <t>MROE (MRO East)</t>
+  </si>
+  <si>
+    <t>MROW (MRO West)</t>
+  </si>
+  <si>
+    <t>NEWE (NPCC New England)</t>
+  </si>
+  <si>
+    <t>NWPP (WECC Northwest)</t>
+  </si>
+  <si>
+    <t>NYCW (NPCC NYC/Westchester)</t>
+  </si>
+  <si>
+    <t>NYLI (NPCC Long Island)</t>
+  </si>
+  <si>
+    <t>NYUP (NPCC Upstate NY)</t>
+  </si>
+  <si>
+    <t>PRMS (Puerto Rico Miscellaneous)</t>
+  </si>
+  <si>
+    <t>RFCE (RFC East)</t>
+  </si>
+  <si>
+    <t>RFCM (RFC Michigan)</t>
+  </si>
+  <si>
+    <t>RFCW (RFC West)</t>
+  </si>
+  <si>
+    <t>RMPA (WECC Rockies)</t>
+  </si>
+  <si>
+    <t>SPNO (SPP North)</t>
+  </si>
+  <si>
+    <t>SPSO (SPP South)</t>
+  </si>
+  <si>
+    <t>SRMV (SERC Mississippi Valley)</t>
+  </si>
+  <si>
+    <t>SRMW (SERC Midwest)</t>
+  </si>
+  <si>
+    <t>SRSO (SERC South)</t>
+  </si>
+  <si>
+    <t>SRTV (SERC Tennessee Valley)</t>
+  </si>
+  <si>
+    <t>SRVC (SERC Virginia/Carolina)</t>
+  </si>
+  <si>
+    <t>US Average</t>
+  </si>
+  <si>
+    <t>sc_co2</t>
+  </si>
+  <si>
+    <t>sc_ch4</t>
+  </si>
+  <si>
+    <t>sc_n2o</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +158,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -62,15 +219,440 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{BA0D0892-1AEF-439E-BE43-3C8756A86901}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10 3" xfId="6" xr:uid="{7FD2E98A-D635-4A79-9A2D-D46B5B4867B0}"/>
+    <cellStyle name="Normal 128" xfId="8" xr:uid="{CA58B9AE-3484-486D-BC05-5B064C63D015}"/>
+    <cellStyle name="Normal 153" xfId="5" xr:uid="{B97A24AC-C8CC-4B3F-864B-16B860D58D51}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{5353C117-E556-43B0-ADA9-CD4FC525C2D9}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="9" xr:uid="{5BAAEF60-186E-4D2B-87EE-48CF10E0DD06}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{093AE6CD-4971-438A-B21A-3CF9186B7693}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{8CADCB61-2189-46C4-AD0F-9EB844799CC2}"/>
+    <cellStyle name="Normal 8" xfId="10" xr:uid="{E6AC8EBA-9E17-4012-A5DE-8F39DC701150}"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{12992019-ED9B-406F-A101-26412C50829C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,12 +964,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E13663-751E-446A-9407-FE9265C849A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1097.5999999999999</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1315.1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.126</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>534.1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D5" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1517.7</v>
+      </c>
+      <c r="F5" s="21">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>846.6</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1368.6</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>513.5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1006.5</v>
+      </c>
+      <c r="F7" s="21">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20">
+        <v>818.6</v>
+      </c>
+      <c r="C8" s="21">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1296.5999999999999</v>
+      </c>
+      <c r="F8" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>835.1</v>
+      </c>
+      <c r="C9" s="21">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D9" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1011</v>
+      </c>
+      <c r="F9" s="21">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G9" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1143.2</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1542.1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G10" s="23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1653</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D11" s="22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1753.5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G11" s="23">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1526.4</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1628.9</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20">
+        <v>979.5</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.104</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1810</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.185</v>
+      </c>
+      <c r="G13" s="23">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <v>528.20000000000005</v>
+      </c>
+      <c r="C14" s="21">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="20">
+        <v>882.5</v>
+      </c>
+      <c r="F14" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20">
+        <v>600</v>
+      </c>
+      <c r="C15" s="21">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D15" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1653</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.159</v>
+      </c>
+      <c r="G15" s="23">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20">
+        <v>634.6</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="20">
+        <v>970.2</v>
+      </c>
+      <c r="F16" s="21">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G16" s="23">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1203.9000000000001</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1260.5999999999999</v>
+      </c>
+      <c r="F17" s="21">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G17" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20">
+        <v>233.5</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D18" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="E18" s="20">
+        <v>877.9</v>
+      </c>
+      <c r="F18" s="21">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G18" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1602.2</v>
+      </c>
+      <c r="C19" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1673.3</v>
+      </c>
+      <c r="F19" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20">
+        <v>652.5</v>
+      </c>
+      <c r="C20" s="21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D20" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1233.4000000000001</v>
+      </c>
+      <c r="F20" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1153.0999999999999</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1725.7</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G21" s="23">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20">
+        <v>985</v>
+      </c>
+      <c r="C22" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D22" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1810.4</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G22" s="23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1144.8</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D23" s="22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1651.9</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20">
+        <v>954</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1969.9</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20">
+        <v>931.8</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="D25" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1514.1</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20">
+        <v>740.4</v>
+      </c>
+      <c r="C26" s="21">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D26" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1137.4000000000001</v>
+      </c>
+      <c r="F26" s="21">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G26" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20">
+        <v>1480.7</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.156</v>
+      </c>
+      <c r="D27" s="22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1866.5</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G27" s="23">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20">
+        <v>860.2</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="D28" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1336.9</v>
+      </c>
+      <c r="F28" s="21">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20">
+        <v>834.2</v>
+      </c>
+      <c r="C29" s="21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D29" s="22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1511.8</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G29" s="23">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20">
+        <v>623.1</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="D30" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1323.9</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.114</v>
+      </c>
+      <c r="G30" s="23">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24">
+        <v>818.3</v>
+      </c>
+      <c r="C31" s="25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D31" s="26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1399.6</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0.109</v>
+      </c>
+      <c r="G31" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ecotrack-backend/Documentation/US_Emissions.xlsx
+++ b/ecotrack-backend/Documentation/US_Emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsh\Documents\Infosys\EcoTrackV2\EcoTrackFront-End\ecotrack-backend\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F7D2C1-390B-44AE-90E9-F4BA8065BEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BCF760-91A9-42F0-B0D4-C1B2693F9D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95FE67DE-A8EF-45BB-8EF0-38ACD45801C5}"/>
   </bookViews>
@@ -539,6 +539,14 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,21 +568,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -904,7 +904,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,37 +913,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
@@ -960,9 +960,9 @@
       <c r="D4" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -977,9 +977,9 @@
       <c r="D5" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -994,9 +994,9 @@
       <c r="D6" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1011,9 +1011,9 @@
       <c r="D7" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1028,9 +1028,9 @@
       <c r="D8" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1045,9 +1045,9 @@
       <c r="D9" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1062,9 +1062,9 @@
       <c r="D10" s="9">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1079,9 +1079,9 @@
       <c r="D11" s="9">
         <v>2.7E-2</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1096,9 +1096,9 @@
       <c r="D12" s="9">
         <v>0.02</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1113,9 +1113,9 @@
       <c r="D13" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1130,9 +1130,9 @@
       <c r="D14" s="9">
         <v>0.01</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1147,9 +1147,9 @@
       <c r="D15" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1164,9 +1164,9 @@
       <c r="D16" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1181,9 +1181,9 @@
       <c r="D17" s="9">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1198,9 +1198,9 @@
       <c r="D18" s="9">
         <v>2E-3</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1215,9 +1215,9 @@
       <c r="D19" s="9">
         <v>1.4E-2</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1232,9 +1232,9 @@
       <c r="D20" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1249,9 +1249,9 @@
       <c r="D21" s="9">
         <v>1.4E-2</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1266,9 +1266,9 @@
       <c r="D22" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1283,9 +1283,9 @@
       <c r="D23" s="9">
         <v>1.4E-2</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1300,9 +1300,9 @@
       <c r="D24" s="9">
         <v>1.4E-2</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1317,9 +1317,9 @@
       <c r="D25" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -1334,9 +1334,9 @@
       <c r="D26" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1351,9 +1351,9 @@
       <c r="D27" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -1368,9 +1368,9 @@
       <c r="D28" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -1385,9 +1385,9 @@
       <c r="D29" s="9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -1402,9 +1402,9 @@
       <c r="D30" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -1419,18 +1419,18 @@
       <c r="D31" s="12">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
